--- a/Textbooks, projects/Applied Math/labs/lab_4/var_18/lab_4_var_18.xlsx
+++ b/Textbooks, projects/Applied Math/labs/lab_4/var_18/lab_4_var_18.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BC59BA2-E1E3-4993-A721-865AD0776D55}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{601DB726-B72F-4E8A-A44C-9DEFCD2CA8F9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -417,7 +417,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -527,7 +527,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="C7" s="3">
-        <f>1/(SIN((LN(SQRT(5*B7-B7^2)))/(COS(3*B7))))</f>
+        <f>1/(SIN((LN(SQRT(5*B7-(B7^2))))/(COS(3*B7))))</f>
         <v>-4.7777295846911576</v>
       </c>
       <c r="D7" s="3"/>
@@ -536,8 +536,8 @@
         <v>0.3165</v>
       </c>
       <c r="F7" s="3">
-        <f>1/(SIN((LN(SQRT(5*B7-B7^2)))/(COS(3*B7))))</f>
-        <v>-4.7777295846911576</v>
+        <f>1/(SIN((LN(SQRT(5*E7-(E7^2))))/(COS(3*E7))))</f>
+        <v>3.0147817236099406</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
@@ -566,8 +566,8 @@
         <v>0.66949999999999998</v>
       </c>
       <c r="F8" s="3">
-        <f t="shared" ref="F8:F16" si="1">1/(SIN((LN(SQRT(5*B8-B8^2)))/(COS(3*B8))))</f>
-        <v>-1.0675309172879883</v>
+        <f t="shared" ref="F8:F16" si="1">1/(SIN((LN(SQRT(5*E8-(E8^2))))/(COS(3*E8))))</f>
+        <v>-1.0517930182748765</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
@@ -592,12 +592,12 @@
         <v>-1.446545042640792</v>
       </c>
       <c r="E9" s="3">
-        <f t="shared" ref="E8:E16" si="5">B9+$B$4/2</f>
+        <f t="shared" ref="E9:E16" si="5">B9+$B$4/2</f>
         <v>1.0225</v>
       </c>
       <c r="F9" s="3">
         <f t="shared" si="1"/>
-        <v>-1.446545042640792</v>
+        <v>-1.5460715935867395</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
@@ -622,12 +622,12 @@
         <v>-1.3376153112523084</v>
       </c>
       <c r="E10" s="3">
-        <f t="shared" si="5"/>
+        <f>B10+$B$4/2</f>
         <v>1.3754999999999997</v>
       </c>
       <c r="F10" s="3">
         <f t="shared" si="1"/>
-        <v>-1.3376153112523084</v>
+        <v>-1.0070118731211863</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
@@ -657,7 +657,7 @@
       </c>
       <c r="F11" s="3">
         <f t="shared" si="1"/>
-        <v>-1.3586891161822796</v>
+        <v>1.0571453782812505</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
@@ -687,7 +687,7 @@
       </c>
       <c r="F12" s="3">
         <f t="shared" si="1"/>
-        <v>1.1511886463416088</v>
+        <v>1.2738264587587895</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
@@ -717,7 +717,7 @@
       </c>
       <c r="F13" s="3">
         <f t="shared" si="1"/>
-        <v>1.163944776928294</v>
+        <v>1.0164604438585616</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
@@ -747,7 +747,7 @@
       </c>
       <c r="F14" s="3">
         <f t="shared" si="1"/>
-        <v>-2.8766758769048448</v>
+        <v>-1.0459402234358952</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
@@ -777,7 +777,7 @@
       </c>
       <c r="F15" s="3">
         <f t="shared" si="1"/>
-        <v>-1.1572623735076195</v>
+        <v>-1.2949446462426843</v>
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
@@ -807,7 +807,7 @@
       </c>
       <c r="F16" s="3">
         <f t="shared" si="1"/>
-        <v>-1.1927464115423574</v>
+        <v>-1.0066312454741411</v>
       </c>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
@@ -850,7 +850,7 @@
       <c r="E18" s="3"/>
       <c r="F18" s="3">
         <f>SUM(F7:F16)</f>
-        <v>-12.899661210739444</v>
+        <v>-0.59017859562698072</v>
       </c>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
@@ -872,7 +872,7 @@
       <c r="E19" s="3"/>
       <c r="F19" s="3">
         <f>B4*F18</f>
-        <v>-4.5535804073910233</v>
+        <v>-0.20833304425632418</v>
       </c>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
@@ -1177,7 +1177,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1294,7 +1294,7 @@
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3">
-        <f t="shared" ref="D9:D16" si="2">1/(SIN((LN(SQRT(5*B10-B10^2)))/(COS(3*B10))))</f>
+        <f t="shared" ref="D10:D16" si="2">1/(SIN((LN(SQRT(5*B10-B10^2)))/(COS(3*B10))))</f>
         <v>-1.3376153112523084</v>
       </c>
       <c r="E10" s="3"/>
@@ -1311,7 +1311,7 @@
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3">
-        <f t="shared" ref="E10:E17" si="3">1/(SIN((LN(SQRT(5*B11-B11^2)))/(COS(3*B11))))</f>
+        <f t="shared" ref="E11:E17" si="3">1/(SIN((LN(SQRT(5*B11-B11^2)))/(COS(3*B11))))</f>
         <v>-1.3586891161822796</v>
       </c>
     </row>
